--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baigao/Desktop/Study/My university/internship/WMcube/searching scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D220D9-D429-A84A-A0DF-EF948D4F8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799F622-5D73-FE43-895D-107052DA7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="4000" windowWidth="24460" windowHeight="13440" xr2:uid="{3FCFE845-7FE9-8841-8694-42581A3CCA4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>related: life settlement report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,12 +93,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,11 +117,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24423617-0BAB-DF43-BB45-E708602DF456}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -452,8 +451,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -464,15 +463,34 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baigao/Desktop/Study/My university/internship/WMcube/searching scraper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern\Desktop\Github\searching-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799F622-5D73-FE43-895D-107052DA7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF3103-4AED-4E4E-A8D7-3AEC0C20AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="4000" windowWidth="24460" windowHeight="13440" xr2:uid="{3FCFE845-7FE9-8841-8694-42581A3CCA4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3FCFE845-7FE9-8841-8694-42581A3CCA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,12 @@
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baigao_ouo</t>
+  </si>
+  <si>
+    <t>Qyj757604swh</t>
   </si>
 </sst>
 </file>
@@ -82,14 +88,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -123,7 +129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +444,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -472,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -480,17 +486,23 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern\Desktop\Github\searching-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF3103-4AED-4E4E-A8D7-3AEC0C20AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4C0E3-865F-4FBF-A28A-56098221D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3FCFE845-7FE9-8841-8694-42581A3CCA4C}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3FCFE845-7FE9-8841-8694-42581A3CCA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>related: life settlement report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,9 @@
   </si>
   <si>
     <t>Qyj757604swh</t>
+  </si>
+  <si>
+    <t>finloop</t>
   </si>
 </sst>
 </file>
@@ -444,7 +443,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -462,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,23 +485,23 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
